--- a/www/IndicatorsPerCountry/Suriname_LatentDemocracyVariable_TerritorialRef_1975_2012_CCode_740.xlsx
+++ b/www/IndicatorsPerCountry/Suriname_LatentDemocracyVariable_TerritorialRef_1975_2012_CCode_740.xlsx
@@ -141,13 +141,13 @@
     <t>Foldvari, Peter (2015). Latent Democracy Variable. http://hdl.handle.net/10622/XYJ2H2, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_XYJ2H2.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_XYJ2H2.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_XYJ2H2.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_XYJ2H2.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_XYJ2H2.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_XYJ2H2.bib</t>
   </si>
 </sst>
 </file>
